--- a/afar_project/csv_path/excel_files/asset_sales_register.xlsx
+++ b/afar_project/csv_path/excel_files/asset_sales_register.xlsx
@@ -25567,11 +25567,7 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X334" t="inlineStr">
-        <is>
-          <t>lipo</t>
-        </is>
-      </c>
+      <c r="X334" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/afar_project/csv_path/excel_files/asset_sales_register.xlsx
+++ b/afar_project/csv_path/excel_files/asset_sales_register.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X334"/>
+  <dimension ref="A1:W334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,11 +549,6 @@
           <t>Location</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Entry By</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -574,7 +569,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0001</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -645,7 +640,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -666,7 +660,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0002</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -725,7 +719,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -746,7 +739,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0003</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -805,7 +798,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -826,7 +818,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0004</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -885,7 +877,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -906,7 +897,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0005</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -965,7 +956,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -986,7 +976,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0006</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1045,7 +1035,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1066,7 +1055,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0007</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1125,7 +1114,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1146,7 +1134,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0008</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1193,7 +1181,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1214,7 +1201,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0009</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1265,7 +1252,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1286,7 +1272,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0010</t>
+          <t>FRC-HQ-SLM-C-17-0000</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1337,7 +1323,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1358,7 +1343,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0011</t>
+          <t>FRC-HQ-SLM-C-17-0000</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1409,7 +1394,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1430,7 +1414,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0012</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1477,7 +1461,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1498,7 +1481,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0013</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1557,7 +1540,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1578,7 +1560,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0014</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1645,7 +1627,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1666,7 +1647,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0015</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1725,7 +1706,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1746,7 +1726,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0016</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1797,7 +1777,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1818,7 +1797,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0017</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1889,7 +1868,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1910,7 +1888,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0018</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1981,7 +1959,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2002,7 +1979,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0019</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2073,7 +2050,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2094,7 +2070,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0020</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2149,7 +2125,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2170,7 +2145,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0021</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2217,7 +2192,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2238,7 +2212,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0022</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2289,7 +2263,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2310,7 +2283,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0023</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2361,7 +2334,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2382,7 +2354,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0024</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2437,7 +2409,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2458,7 +2429,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0025</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2513,7 +2484,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2534,7 +2504,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0026</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2589,7 +2559,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2610,7 +2579,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0027</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2665,7 +2634,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2686,7 +2654,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0028</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2757,7 +2725,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2778,7 +2745,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0029</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2837,7 +2804,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2858,7 +2824,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0030</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2917,7 +2883,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2938,7 +2903,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0031</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -2993,7 +2958,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3014,7 +2978,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0032</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3065,7 +3029,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3086,7 +3049,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0033</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3137,7 +3100,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3158,7 +3120,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0034</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3213,7 +3175,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3234,7 +3195,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0035</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3293,7 +3254,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3314,7 +3274,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0036</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3365,7 +3325,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3386,7 +3345,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0037</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3457,7 +3416,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3478,7 +3436,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0038</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3537,7 +3495,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3558,7 +3515,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0039</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3617,7 +3574,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3638,7 +3594,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0040</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3697,7 +3653,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3718,7 +3673,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0041</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3769,7 +3724,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3790,7 +3744,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0042</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -3857,7 +3811,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3878,7 +3831,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0043</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -3937,7 +3890,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3958,7 +3910,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0044</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -4013,7 +3965,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4034,7 +3985,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-17-0045</t>
+          <t>FRC-HQ-SLM-T-17-0000</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -4085,7 +4036,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4106,7 +4056,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-17-0046</t>
+          <t>FRC-HQ-SLM-T-17-0000</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -4153,7 +4103,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4174,7 +4123,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0047</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -4245,7 +4194,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4266,7 +4214,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0048</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -4337,7 +4285,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4358,7 +4305,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0049</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4429,7 +4376,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4450,7 +4396,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0050</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -4517,7 +4463,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4538,7 +4483,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0051</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -4609,7 +4554,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4630,7 +4574,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0052</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -4697,7 +4641,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4718,7 +4661,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0053</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -4785,7 +4728,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4806,7 +4748,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0054</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -4873,7 +4815,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4894,7 +4835,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0055</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -4961,7 +4902,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4982,7 +4922,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0056</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -5053,7 +4993,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5074,7 +5013,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0057</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -5141,7 +5080,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5162,7 +5100,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0058</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -5229,7 +5167,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5250,7 +5187,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0059</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -5317,7 +5254,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5338,7 +5274,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0060</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -5389,7 +5325,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5410,7 +5345,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0061</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -5461,7 +5396,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5482,7 +5416,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0062</t>
+          <t>FRC-HQ-SLM-O-18-0000</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -5541,7 +5475,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5562,7 +5495,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0063</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -5617,7 +5550,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5638,7 +5570,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0064</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -5709,7 +5641,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5730,7 +5661,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0065</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -5789,7 +5720,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5810,7 +5740,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0066</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -5861,7 +5791,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5882,7 +5811,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0067</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -5937,7 +5866,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5958,7 +5886,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0068</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -6013,7 +5941,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6034,7 +5961,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0069</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -6101,7 +6028,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6122,7 +6048,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0070</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -6177,7 +6103,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6198,7 +6123,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0071</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -6249,7 +6174,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6270,7 +6194,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0072</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -6329,7 +6253,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6350,7 +6273,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0073</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -6405,7 +6328,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6426,7 +6348,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0074</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -6485,7 +6407,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6506,7 +6427,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0075</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -6565,7 +6486,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6586,7 +6506,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0076</t>
+          <t>FRC-HQ-SLM-T-18-0000</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -6637,7 +6557,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6658,7 +6577,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0077</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -6717,7 +6636,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6738,7 +6656,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0078</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -6793,7 +6711,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6814,7 +6731,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0079</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -6865,7 +6782,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6886,7 +6802,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0080</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -6945,7 +6861,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6966,7 +6881,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0081</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -7021,7 +6936,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7042,7 +6956,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0082</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -7101,7 +7015,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7122,7 +7035,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0083</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -7181,7 +7094,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7202,7 +7114,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0084</t>
+          <t>FRC-HQ-SLM-O-18-0000</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -7253,7 +7165,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7274,7 +7185,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0085</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -7333,7 +7244,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7354,7 +7264,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0086</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -7413,7 +7323,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7434,7 +7343,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0087</t>
+          <t>FRC-HQ-SLM-O-18-0000</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -7485,7 +7394,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7506,7 +7414,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0088</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -7557,7 +7465,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7578,7 +7485,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0089</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -7637,7 +7544,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7658,7 +7564,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0090</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -7713,7 +7619,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7734,7 +7639,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0091</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -7801,7 +7706,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7822,7 +7726,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0092</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -7889,7 +7793,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7910,7 +7813,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0093</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -7977,7 +7880,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7998,7 +7900,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0094</t>
+          <t>FRC-HQ-SLM-O-18-0000</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -8069,7 +7971,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8090,7 +7991,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0095</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -8141,7 +8042,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8162,7 +8062,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0096</t>
+          <t>FRC-HQ-SLM-O-18-0000</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -8213,7 +8113,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8234,7 +8133,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0097</t>
+          <t>FRC-HQ-SLM-T-18-0000</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -8289,7 +8188,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8310,7 +8208,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-18-0098</t>
+          <t>FRC-HQ-SLM-M-18-0000</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -8369,7 +8267,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8390,7 +8287,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-18-0099</t>
+          <t>FRC-HQ-SLM-M-18-0000</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -8449,7 +8346,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8470,7 +8366,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0100</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -8521,7 +8417,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8542,7 +8437,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0101</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -8593,7 +8488,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8614,7 +8508,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0102</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -8665,7 +8559,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8686,7 +8579,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0103</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -8757,7 +8650,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8778,7 +8670,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0104</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -8825,7 +8717,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8846,7 +8737,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0105</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -8905,7 +8796,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -8926,7 +8816,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0106</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -8997,7 +8887,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -9018,7 +8907,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0107</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -9077,7 +8966,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -9098,7 +8986,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0108</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -9157,7 +9045,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -9178,7 +9065,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0109</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -9229,7 +9116,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -9250,7 +9136,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0110</t>
+          <t>FRC-HQ-SLM-F-18-0001</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -9321,7 +9207,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -9342,7 +9227,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0111</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -9409,7 +9294,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9430,7 +9314,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0112</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -9501,7 +9385,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -9522,7 +9405,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0113</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -9589,7 +9472,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9610,7 +9492,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0114</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -9665,7 +9547,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -9686,7 +9567,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0115</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -9741,7 +9622,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -9762,7 +9642,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0116</t>
+          <t>FRC-HQ-SLM-O-19-0001</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -9821,7 +9701,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -9842,7 +9721,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0117</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -9909,7 +9788,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -9930,7 +9808,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0118</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -9985,7 +9863,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -10006,7 +9883,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0119</t>
+          <t>FRC-HQ-SLM-O-19-0001</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -10065,7 +9942,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -10086,7 +9962,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0120</t>
+          <t>FRC-HQ-SLM-O-19-0001</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -10145,7 +10021,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -10166,7 +10041,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0121</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -10221,7 +10096,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -10242,7 +10116,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0122</t>
+          <t>FRC-HQ-SLM-C-19-0001</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -10301,7 +10175,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -10322,7 +10195,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0123</t>
+          <t>FRC-HQ-SLM-C-19-0001</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -10381,7 +10254,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -10402,7 +10274,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0124</t>
+          <t>FRC-HQ-SLM-C-19-0001</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -10461,7 +10333,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10482,7 +10353,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0125</t>
+          <t>FRC-HQ-SLM-C-19-0001</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -10533,7 +10404,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -10554,7 +10424,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0126</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -10613,7 +10483,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -10634,7 +10503,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0127</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -10689,7 +10558,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -10710,7 +10578,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0128</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -10765,7 +10633,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -10786,7 +10653,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0129</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -10841,7 +10708,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -10862,7 +10728,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0130</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -10921,7 +10787,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -10942,7 +10807,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0131</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -11001,7 +10866,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -11022,7 +10886,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0132</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -11077,7 +10941,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -11098,7 +10961,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-20-0133</t>
+          <t>FRC-HQ-SLM-T-20-0001</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -11157,7 +11020,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -11178,7 +11040,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0134</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -11237,7 +11099,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -11258,7 +11119,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0135</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -11317,7 +11178,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -11338,7 +11198,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0136</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -11389,7 +11249,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -11410,7 +11269,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0137</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -11469,7 +11328,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -11490,7 +11348,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0138</t>
+          <t>FRC-HQ-SLM-F-20-0001</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -11549,7 +11407,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -11570,7 +11427,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0139</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -11629,7 +11486,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -11650,7 +11506,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0140</t>
+          <t>FRC-HQ-SLM-F-20-0001</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -11705,7 +11561,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -11726,7 +11581,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0141</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -11781,7 +11636,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -11802,7 +11656,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0142</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -11861,7 +11715,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -11882,7 +11735,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0143</t>
+          <t>FRC-HQ-SLM-M-21-0001</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -11941,7 +11794,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -11962,7 +11814,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0144</t>
+          <t>FRC-HQ-SLM-M-21-0001</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -12009,7 +11861,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -12030,7 +11881,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0145</t>
+          <t>FRC-HQ-SLM-O-21-0001</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -12085,7 +11936,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -12106,7 +11956,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0146</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -12165,7 +12015,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -12186,7 +12035,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0147</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -12245,7 +12094,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -12266,7 +12114,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0148</t>
+          <t>FRC-HQ-SLM-M-21-0001</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -12313,7 +12161,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -12334,7 +12181,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0149</t>
+          <t>FRC-HQ-SLM-F-21-0001</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -12393,7 +12240,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -12414,7 +12260,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0150</t>
+          <t>FRC-HQ-SLM-O-21-0001</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -12469,7 +12315,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -12490,7 +12335,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0152</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -12539,7 +12384,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -12560,7 +12404,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0153</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -12609,7 +12453,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -12630,7 +12473,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0154</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
@@ -12679,7 +12522,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -12700,7 +12542,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0155</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
@@ -12749,7 +12591,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -12770,7 +12611,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0156</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -12819,7 +12660,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -12840,7 +12680,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0157</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -12889,7 +12729,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -12910,7 +12749,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0158</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
@@ -12959,7 +12798,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -12980,7 +12818,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0159</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -13029,7 +12867,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -13050,7 +12887,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0160</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -13099,7 +12936,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -13120,7 +12956,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0161</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
@@ -13169,7 +13005,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -13190,7 +13025,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0162</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -13239,7 +13074,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -13260,7 +13094,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0163</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -13309,7 +13143,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -13330,7 +13163,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0164</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -13379,7 +13212,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -13400,7 +13232,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0165</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="F165" t="inlineStr"/>
@@ -13449,7 +13281,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -13470,7 +13301,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0166</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
@@ -13519,7 +13350,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -13540,7 +13370,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0167</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
@@ -13589,7 +13419,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -13610,7 +13439,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0168</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
@@ -13659,7 +13488,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -13680,7 +13508,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0169</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
@@ -13730,7 +13558,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -13751,7 +13578,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0170</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
@@ -13804,7 +13631,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -13825,7 +13651,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0171</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -13874,7 +13700,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -13895,7 +13720,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0172</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
@@ -13948,7 +13773,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -13969,7 +13793,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0173</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -14022,7 +13846,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -14043,7 +13866,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0174</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -14096,7 +13919,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -14117,7 +13939,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0175</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -14170,7 +13992,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -14191,7 +14012,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0176</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
@@ -14240,7 +14061,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -14261,7 +14081,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0177</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
@@ -14310,7 +14130,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -14331,7 +14150,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0178</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -14380,7 +14199,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -14401,7 +14219,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0179</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -14450,7 +14268,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -14471,7 +14288,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0180</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -14524,7 +14341,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -14545,7 +14361,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0181</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
@@ -14594,7 +14410,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -14615,7 +14430,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0182</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -14664,7 +14479,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -14685,7 +14499,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0183</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -14734,7 +14548,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -14755,7 +14568,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0184</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -14805,7 +14618,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -14826,7 +14638,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0185</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -14875,7 +14687,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -14896,7 +14707,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0186</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -14945,7 +14756,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -14966,7 +14776,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0187</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
@@ -15015,7 +14825,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -15036,7 +14845,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0188</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F188" t="inlineStr"/>
@@ -15085,7 +14894,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -15106,7 +14914,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0189</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
@@ -15155,7 +14963,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -15176,7 +14983,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0190</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
@@ -15229,7 +15036,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -15250,7 +15056,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0191</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
@@ -15303,7 +15109,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -15324,7 +15129,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0192</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -15373,7 +15178,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -15394,7 +15198,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0193</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -15447,7 +15251,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -15468,7 +15271,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0194</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F194" t="inlineStr"/>
@@ -15521,7 +15324,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -15542,7 +15344,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0195</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
@@ -15595,7 +15397,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -15616,7 +15417,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0196</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F196" t="inlineStr"/>
@@ -15665,7 +15466,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -15686,7 +15486,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0197</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F197" t="inlineStr"/>
@@ -15735,7 +15535,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -15756,7 +15555,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0198</t>
+          <t>FRC-HQ-SLM-E-21-0001</t>
         </is>
       </c>
       <c r="F198" t="inlineStr"/>
@@ -15809,7 +15608,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -15830,7 +15628,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0199</t>
+          <t>FRC-HQ-SLM-E-21-0001</t>
         </is>
       </c>
       <c r="F199" t="inlineStr"/>
@@ -15883,7 +15681,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -15904,7 +15701,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0200</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
@@ -15957,7 +15754,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -15978,7 +15774,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0201</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F201" t="inlineStr"/>
@@ -16031,7 +15827,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -16052,7 +15847,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0202</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F202" t="inlineStr"/>
@@ -16105,7 +15900,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -16126,7 +15920,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0203</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F203" t="inlineStr"/>
@@ -16179,7 +15973,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -16200,7 +15993,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0204</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F204" t="inlineStr"/>
@@ -16253,7 +16046,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -16274,7 +16066,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0205</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F205" t="inlineStr"/>
@@ -16327,7 +16119,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -16348,7 +16139,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0206</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F206" t="inlineStr"/>
@@ -16401,7 +16192,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -16422,7 +16212,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0207</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F207" t="inlineStr"/>
@@ -16475,7 +16265,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -16496,7 +16285,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0208</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -16549,7 +16338,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -16570,7 +16358,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0209</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F209" t="inlineStr"/>
@@ -16623,7 +16411,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -16644,7 +16431,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0210</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F210" t="inlineStr"/>
@@ -16697,7 +16484,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -16718,7 +16504,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0211</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F211" t="inlineStr"/>
@@ -16771,7 +16557,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -16792,7 +16577,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0212</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
@@ -16845,7 +16630,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -16866,7 +16650,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0213</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F213" t="inlineStr"/>
@@ -16919,7 +16703,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -16940,7 +16723,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0214</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
@@ -16993,7 +16776,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -17014,7 +16796,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0215</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F215" t="inlineStr"/>
@@ -17067,7 +16849,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -17088,7 +16869,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0216</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F216" t="inlineStr"/>
@@ -17141,7 +16922,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -17162,7 +16942,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0217</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -17215,7 +16995,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -17236,7 +17015,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0218</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F218" t="inlineStr"/>
@@ -17293,7 +17072,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -17314,7 +17092,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0219</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -17371,7 +17149,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -17392,7 +17169,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0220</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F220" t="inlineStr"/>
@@ -17445,7 +17222,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -17466,7 +17242,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0221</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F221" t="inlineStr"/>
@@ -17519,7 +17295,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -17540,7 +17315,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0222</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F222" t="inlineStr"/>
@@ -17589,7 +17364,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -17610,7 +17384,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0223</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F223" t="inlineStr"/>
@@ -17659,7 +17433,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -17680,7 +17453,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0224</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -17733,7 +17506,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -17754,7 +17526,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0225</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
@@ -17807,7 +17579,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -17828,7 +17599,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0226</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F226" t="inlineStr"/>
@@ -17881,7 +17652,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -17902,7 +17672,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0227</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F227" t="inlineStr"/>
@@ -17955,7 +17725,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -17976,7 +17745,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0228</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
@@ -18025,7 +17794,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -18046,7 +17814,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0229</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
@@ -18095,7 +17863,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -18116,7 +17883,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0230</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
@@ -18165,7 +17932,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -18186,7 +17952,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0231</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F231" t="inlineStr"/>
@@ -18235,7 +18001,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -18256,7 +18021,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0232</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F232" t="inlineStr"/>
@@ -18305,7 +18070,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -18326,7 +18090,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0233</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F233" t="inlineStr"/>
@@ -18375,7 +18139,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -18396,7 +18159,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0234</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F234" t="inlineStr"/>
@@ -18445,7 +18208,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -18466,7 +18228,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0235</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F235" t="inlineStr"/>
@@ -18519,7 +18281,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -18540,7 +18301,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0236</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F236" t="inlineStr"/>
@@ -18593,7 +18354,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -18614,7 +18374,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0237</t>
+          <t>FRC-HQ-SLM-P-21-0002</t>
         </is>
       </c>
       <c r="F237" t="inlineStr"/>
@@ -18663,7 +18423,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -18684,7 +18443,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0238</t>
+          <t>FRC-HQ-SLM-P-21-0002</t>
         </is>
       </c>
       <c r="F238" t="inlineStr"/>
@@ -18733,7 +18492,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -18754,7 +18512,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0239</t>
+          <t>FRC-HQ-SLM-P-21-0002</t>
         </is>
       </c>
       <c r="F239" t="inlineStr"/>
@@ -18803,7 +18561,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -18824,7 +18581,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0240</t>
+          <t>FRC-HQ-SLM-P-21-0002</t>
         </is>
       </c>
       <c r="F240" t="inlineStr"/>
@@ -18873,7 +18630,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -18894,7 +18650,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0241</t>
+          <t>FRC-HQ-SLM-P-21-0002</t>
         </is>
       </c>
       <c r="F241" t="inlineStr"/>
@@ -18943,7 +18699,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -18964,7 +18719,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0242</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F242" t="inlineStr"/>
@@ -19013,7 +18768,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -19034,7 +18788,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0243</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F243" t="inlineStr"/>
@@ -19083,7 +18837,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -19104,7 +18857,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0244</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F244" t="inlineStr"/>
@@ -19153,7 +18906,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -19174,7 +18926,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0245</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F245" t="inlineStr"/>
@@ -19223,7 +18975,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -19244,7 +18995,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0246</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F246" t="inlineStr"/>
@@ -19293,7 +19044,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -19314,7 +19064,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0247</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F247" t="inlineStr"/>
@@ -19363,7 +19113,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -19384,7 +19133,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0248</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F248" t="inlineStr"/>
@@ -19433,7 +19182,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -19454,7 +19202,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0249</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F249" t="inlineStr"/>
@@ -19503,7 +19251,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -19524,7 +19271,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0250</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
@@ -19573,7 +19320,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -19594,7 +19340,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0251</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
@@ -19643,7 +19389,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -19664,7 +19409,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0252</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
@@ -19713,7 +19458,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -19734,7 +19478,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0253</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F253" t="inlineStr"/>
@@ -19783,7 +19527,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -19804,7 +19547,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0254</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F254" t="inlineStr"/>
@@ -19853,7 +19596,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -19874,7 +19616,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0255</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F255" t="inlineStr"/>
@@ -19923,7 +19665,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -19944,7 +19685,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0256</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
@@ -19993,7 +19734,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -20014,7 +19754,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0257</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F257" t="inlineStr"/>
@@ -20063,7 +19803,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -20084,7 +19823,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0258</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F258" t="inlineStr"/>
@@ -20133,7 +19872,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -20154,7 +19892,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0259</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F259" t="inlineStr"/>
@@ -20203,7 +19941,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -20224,7 +19961,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0260</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -20273,7 +20010,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -20294,7 +20030,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0261</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -20343,7 +20079,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -20364,7 +20099,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0262</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
@@ -20413,7 +20148,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -20434,7 +20168,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0263</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
@@ -20483,7 +20217,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -20504,7 +20237,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0264</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F264" t="inlineStr"/>
@@ -20553,7 +20286,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -20574,7 +20306,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0265</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F265" t="inlineStr"/>
@@ -20623,7 +20355,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -20644,7 +20375,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0266</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F266" t="inlineStr"/>
@@ -20693,7 +20424,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -20714,7 +20444,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0267</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F267" t="inlineStr"/>
@@ -20763,7 +20493,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -20784,7 +20513,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0268</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F268" t="inlineStr"/>
@@ -20833,7 +20562,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -20854,7 +20582,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0269</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F269" t="inlineStr"/>
@@ -20907,7 +20635,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -20928,7 +20655,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0270</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F270" t="inlineStr"/>
@@ -20977,7 +20704,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -20998,7 +20724,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0271</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F271" t="inlineStr"/>
@@ -21047,7 +20773,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -21068,7 +20793,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0272</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F272" t="inlineStr"/>
@@ -21117,7 +20842,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -21138,7 +20862,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0273</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F273" t="inlineStr"/>
@@ -21187,7 +20911,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -21208,7 +20931,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0274</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F274" t="inlineStr"/>
@@ -21257,7 +20980,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -21278,7 +21000,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0275</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F275" t="inlineStr"/>
@@ -21327,7 +21049,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -21348,7 +21069,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0276</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F276" t="inlineStr"/>
@@ -21397,7 +21118,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -21418,7 +21138,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0277</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F277" t="inlineStr"/>
@@ -21467,7 +21187,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -21488,7 +21207,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0278</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F278" t="inlineStr"/>
@@ -21537,7 +21256,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -21558,7 +21276,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0279</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F279" t="inlineStr"/>
@@ -21607,7 +21325,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -21628,7 +21345,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0280</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F280" t="inlineStr"/>
@@ -21677,7 +21394,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -21698,7 +21414,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0281</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F281" t="inlineStr"/>
@@ -21747,7 +21463,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -21768,7 +21483,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0282</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F282" t="inlineStr"/>
@@ -21817,7 +21532,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -21838,7 +21552,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0283</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
@@ -21887,7 +21601,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -21908,7 +21621,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0284</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F284" t="inlineStr"/>
@@ -21961,7 +21674,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -21982,7 +21694,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0285</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F285" t="inlineStr"/>
@@ -22035,7 +21747,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -22056,7 +21767,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0286</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F286" t="inlineStr"/>
@@ -22109,7 +21820,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -22130,7 +21840,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0287</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F287" t="inlineStr"/>
@@ -22179,7 +21889,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -22200,7 +21909,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0288</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F288" t="inlineStr"/>
@@ -22253,7 +21962,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -22274,7 +21982,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0289</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F289" t="inlineStr"/>
@@ -22327,7 +22035,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -22348,7 +22055,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0290</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F290" t="inlineStr"/>
@@ -22401,7 +22108,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -22422,7 +22128,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0291</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F291" t="inlineStr"/>
@@ -22475,7 +22181,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -22496,7 +22201,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0292</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F292" t="inlineStr"/>
@@ -22549,7 +22254,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -22570,7 +22274,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0293</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F293" t="inlineStr"/>
@@ -22623,7 +22327,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -22644,7 +22347,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0294</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F294" t="inlineStr"/>
@@ -22697,7 +22400,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -22718,7 +22420,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0295</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F295" t="inlineStr"/>
@@ -22771,7 +22473,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -22792,7 +22493,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0296</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F296" t="inlineStr"/>
@@ -22841,7 +22542,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -22862,7 +22562,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0297</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F297" t="inlineStr"/>
@@ -22911,7 +22611,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -22932,7 +22631,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0298</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F298" t="inlineStr"/>
@@ -22981,7 +22680,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -23002,7 +22700,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0299</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F299" t="inlineStr"/>
@@ -23051,7 +22749,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -23072,7 +22769,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0300</t>
+          <t>FRC-HQ-SLM-F-21-0003</t>
         </is>
       </c>
       <c r="F300" t="inlineStr"/>
@@ -23121,7 +22818,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -23142,7 +22838,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0301</t>
+          <t>FRC-HQ-SLM-F-21-0003</t>
         </is>
       </c>
       <c r="F301" t="inlineStr"/>
@@ -23191,7 +22887,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -23212,7 +22907,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0001</t>
+          <t>FRC-HQ-SLM-F-23-0000</t>
         </is>
       </c>
       <c r="F302" t="n">
@@ -23263,7 +22958,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -23284,7 +22978,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0001</t>
+          <t>FRC-HQ-SLM-F-23-0000</t>
         </is>
       </c>
       <c r="F303" t="n">
@@ -23335,7 +23029,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -23356,7 +23049,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0002</t>
+          <t>FRC-HQ-SLM-M-23-0000</t>
         </is>
       </c>
       <c r="F304" t="n">
@@ -23407,7 +23100,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -23428,7 +23120,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0002</t>
+          <t>FRC-HQ-SLM-M-23-0000</t>
         </is>
       </c>
       <c r="F305" t="n">
@@ -23479,7 +23171,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -23500,7 +23191,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0002</t>
+          <t>FRC-HQ-SLM-M-23-0000</t>
         </is>
       </c>
       <c r="F306" t="n">
@@ -23551,7 +23242,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -23572,7 +23262,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0002</t>
+          <t>FRC-HQ-SLM-M-23-0000</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -23623,7 +23313,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -23644,7 +23333,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0003</t>
+          <t>FRC-HQ-SLM-F-21-0000</t>
         </is>
       </c>
       <c r="F308" t="n">
@@ -23695,7 +23384,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -23716,7 +23404,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0003</t>
+          <t>FRC-HQ-SLM-F-21-0000</t>
         </is>
       </c>
       <c r="F309" t="n">
@@ -23767,7 +23455,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -23788,7 +23475,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0006</t>
+          <t>FRC-HQ-SLM-O-19-0000</t>
         </is>
       </c>
       <c r="F310" t="n">
@@ -23839,7 +23526,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -23860,7 +23546,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0006</t>
+          <t>FRC-HQ-SLM-O-19-0000</t>
         </is>
       </c>
       <c r="F311" t="n">
@@ -23911,7 +23597,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -23932,7 +23617,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0006</t>
+          <t>FRC-HQ-SLM-F-23-0000</t>
         </is>
       </c>
       <c r="F312" t="n">
@@ -23983,7 +23668,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -24004,7 +23688,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0006</t>
+          <t>FRC-HQ-SLM-F-23-0000</t>
         </is>
       </c>
       <c r="F313" t="n">
@@ -24055,7 +23739,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -24076,7 +23759,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-23-0006</t>
+          <t>FRC-HQ-SLM-T-23-0000</t>
         </is>
       </c>
       <c r="F314" t="n">
@@ -24127,7 +23810,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -24148,7 +23830,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-23-0006</t>
+          <t>FRC-HQ-SLM-T-23-0000</t>
         </is>
       </c>
       <c r="F315" t="n">
@@ -24199,7 +23881,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -24220,7 +23901,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-23-0006</t>
+          <t>FRC-HQ-SLM-E-23-0000</t>
         </is>
       </c>
       <c r="F316" t="n">
@@ -24271,7 +23952,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -24292,7 +23972,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-23-0006</t>
+          <t>FRC-HQ-SLM-E-23-0000</t>
         </is>
       </c>
       <c r="F317" t="n">
@@ -24343,7 +24023,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -24364,7 +24043,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-23-0006</t>
+          <t>FRC-HQ-SLM-E-23-0000</t>
         </is>
       </c>
       <c r="F318" t="n">
@@ -24415,7 +24094,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -24436,7 +24114,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0006</t>
+          <t>FRC-HQ-SLM-C-22-0000</t>
         </is>
       </c>
       <c r="F319" t="n">
@@ -24487,7 +24165,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -24508,7 +24185,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0006</t>
+          <t>FRC-HQ-SLM-C-22-0000</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -24559,7 +24236,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -24580,7 +24256,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -24631,7 +24307,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -24652,7 +24327,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F322" t="n">
@@ -24703,7 +24378,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -24724,7 +24398,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F323" t="n">
@@ -24775,7 +24449,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -24796,7 +24469,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F324" t="n">
@@ -24847,7 +24520,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -24868,7 +24540,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F325" t="n">
@@ -24919,7 +24591,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -24940,7 +24611,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F326" t="n">
@@ -24991,7 +24662,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -25012,7 +24682,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F327" t="n">
@@ -25063,7 +24733,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -25084,7 +24753,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F328" t="n">
@@ -25135,7 +24804,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -25156,7 +24824,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F329" t="n">
@@ -25207,7 +24875,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -25228,7 +24895,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F330" t="n">
@@ -25279,7 +24946,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -25300,7 +24966,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F331" t="n">
@@ -25351,7 +25017,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -25372,7 +25037,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F332" t="n">
@@ -25423,7 +25088,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -25444,7 +25108,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-20-0001</t>
+          <t>FRC-HQ-SLM-T-20-0000</t>
         </is>
       </c>
       <c r="F333" t="n">
@@ -25495,7 +25159,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -25516,7 +25179,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0001</t>
+          <t>FRC-HQ-SLM-O-21-0000</t>
         </is>
       </c>
       <c r="F334" t="n">
@@ -25567,7 +25230,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X334" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/afar_project/csv_path/excel_files/asset_sales_register.xlsx
+++ b/afar_project/csv_path/excel_files/asset_sales_register.xlsx
@@ -569,7 +569,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0001</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -660,7 +660,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0002</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -739,7 +739,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0003</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -818,7 +818,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0004</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -897,7 +897,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0005</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -976,7 +976,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0006</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0007</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0008</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0009</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0000</t>
+          <t>FRC-HQ-SLM-C-17-0010</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0000</t>
+          <t>FRC-HQ-SLM-C-17-0011</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0012</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0013</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0014</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0015</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0016</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0017</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0018</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0019</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0020</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0021</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0022</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0023</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0024</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0025</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0026</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0027</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0028</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0029</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0030</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0031</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0032</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0033</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0034</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0035</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0036</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0037</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0038</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0039</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0040</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0041</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0042</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0043</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0044</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -3985,7 +3985,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-17-0000</t>
+          <t>FRC-HQ-SLM-T-17-0045</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-17-0000</t>
+          <t>FRC-HQ-SLM-T-17-0046</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0047</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -4214,7 +4214,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0048</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -4305,7 +4305,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0049</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0050</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0051</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0052</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0053</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0054</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0055</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0056</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0057</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0058</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0059</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0060</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0061</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0062</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0063</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -5570,7 +5570,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0064</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0065</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0066</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0067</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -5886,7 +5886,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0068</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -5961,7 +5961,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0069</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -6048,7 +6048,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0070</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0071</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -6194,7 +6194,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0072</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0073</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -6348,7 +6348,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0074</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -6427,7 +6427,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0075</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0000</t>
+          <t>FRC-HQ-SLM-T-18-0076</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -6577,7 +6577,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0077</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0078</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -6731,7 +6731,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0079</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -6802,7 +6802,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0080</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0081</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -6956,7 +6956,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0082</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -7035,7 +7035,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0083</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0084</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -7185,7 +7185,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0085</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -7264,7 +7264,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0086</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0087</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0088</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -7485,7 +7485,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0089</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0090</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -7639,7 +7639,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0091</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0092</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -7813,7 +7813,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0093</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0094</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -7991,7 +7991,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0095</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -8062,7 +8062,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0096</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0000</t>
+          <t>FRC-HQ-SLM-T-18-0097</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -8208,7 +8208,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-18-0000</t>
+          <t>FRC-HQ-SLM-M-18-0098</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -8287,7 +8287,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-18-0000</t>
+          <t>FRC-HQ-SLM-M-18-0099</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0100</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -8437,7 +8437,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0101</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0102</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0103</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -8670,7 +8670,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0104</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -8737,7 +8737,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0105</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0106</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -8907,7 +8907,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0107</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -8986,7 +8986,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0108</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -9065,7 +9065,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0109</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0001</t>
+          <t>FRC-HQ-SLM-F-18-0110</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -9227,7 +9227,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0111</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -9314,7 +9314,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0112</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -9405,7 +9405,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0113</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0114</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0115</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -9642,7 +9642,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0116</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0117</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -9808,7 +9808,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0118</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -9883,7 +9883,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0119</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -9962,7 +9962,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0120</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0121</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0001</t>
+          <t>FRC-HQ-SLM-C-19-0122</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0001</t>
+          <t>FRC-HQ-SLM-C-19-0123</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -10274,7 +10274,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0001</t>
+          <t>FRC-HQ-SLM-C-19-0124</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0001</t>
+          <t>FRC-HQ-SLM-C-19-0125</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -10424,7 +10424,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0126</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0127</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -10578,7 +10578,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0128</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -10653,7 +10653,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0129</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -10728,7 +10728,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0130</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0131</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -10886,7 +10886,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0132</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -10961,7 +10961,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-20-0001</t>
+          <t>FRC-HQ-SLM-T-20-0133</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -11040,7 +11040,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0134</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -11119,7 +11119,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0135</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0136</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -11269,7 +11269,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0137</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -11348,7 +11348,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0001</t>
+          <t>FRC-HQ-SLM-F-20-0138</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0139</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -11506,7 +11506,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0001</t>
+          <t>FRC-HQ-SLM-F-20-0140</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -11581,7 +11581,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0141</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0142</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -11735,7 +11735,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0001</t>
+          <t>FRC-HQ-SLM-M-21-0143</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -11814,7 +11814,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0001</t>
+          <t>FRC-HQ-SLM-M-21-0144</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -11881,7 +11881,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0001</t>
+          <t>FRC-HQ-SLM-O-21-0145</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -11956,7 +11956,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0146</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -12035,7 +12035,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0147</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -12114,7 +12114,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0001</t>
+          <t>FRC-HQ-SLM-M-21-0148</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -12181,7 +12181,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0001</t>
+          <t>FRC-HQ-SLM-F-21-0149</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -12260,7 +12260,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0001</t>
+          <t>FRC-HQ-SLM-O-21-0150</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -12335,7 +12335,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0152</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0153</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -12473,7 +12473,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0154</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
@@ -12542,7 +12542,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0155</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
@@ -12611,7 +12611,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0156</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -12680,7 +12680,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0157</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -12749,7 +12749,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0158</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
@@ -12818,7 +12818,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0159</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -12887,7 +12887,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0160</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -12956,7 +12956,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0161</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
@@ -13025,7 +13025,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0162</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -13094,7 +13094,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0163</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -13163,7 +13163,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0164</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -13232,7 +13232,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0165</t>
         </is>
       </c>
       <c r="F165" t="inlineStr"/>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0166</t>
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
@@ -13370,7 +13370,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0167</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
@@ -13439,7 +13439,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0168</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
@@ -13508,7 +13508,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0169</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
@@ -13578,7 +13578,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0170</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0171</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -13720,7 +13720,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0172</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0173</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -13866,7 +13866,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0174</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -13939,7 +13939,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0175</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -14012,7 +14012,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0176</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
@@ -14081,7 +14081,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0177</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
@@ -14150,7 +14150,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0178</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -14219,7 +14219,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0179</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -14288,7 +14288,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0180</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -14361,7 +14361,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0181</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
@@ -14430,7 +14430,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0182</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -14499,7 +14499,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0183</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -14568,7 +14568,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0184</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -14638,7 +14638,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0185</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0186</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -14776,7 +14776,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0187</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
@@ -14845,7 +14845,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0188</t>
         </is>
       </c>
       <c r="F188" t="inlineStr"/>
@@ -14914,7 +14914,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0189</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
@@ -14983,7 +14983,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0190</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
@@ -15056,7 +15056,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0191</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
@@ -15129,7 +15129,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0192</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -15198,7 +15198,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0193</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -15271,7 +15271,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0194</t>
         </is>
       </c>
       <c r="F194" t="inlineStr"/>
@@ -15344,7 +15344,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0195</t>
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
@@ -15417,7 +15417,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0196</t>
         </is>
       </c>
       <c r="F196" t="inlineStr"/>
@@ -15486,7 +15486,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0197</t>
         </is>
       </c>
       <c r="F197" t="inlineStr"/>
@@ -15555,7 +15555,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0001</t>
+          <t>FRC-HQ-SLM-E-21-0198</t>
         </is>
       </c>
       <c r="F198" t="inlineStr"/>
@@ -15628,7 +15628,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0001</t>
+          <t>FRC-HQ-SLM-E-21-0199</t>
         </is>
       </c>
       <c r="F199" t="inlineStr"/>
@@ -15701,7 +15701,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0200</t>
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
@@ -15774,7 +15774,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0201</t>
         </is>
       </c>
       <c r="F201" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0202</t>
         </is>
       </c>
       <c r="F202" t="inlineStr"/>
@@ -15920,7 +15920,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0203</t>
         </is>
       </c>
       <c r="F203" t="inlineStr"/>
@@ -15993,7 +15993,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0204</t>
         </is>
       </c>
       <c r="F204" t="inlineStr"/>
@@ -16066,7 +16066,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0205</t>
         </is>
       </c>
       <c r="F205" t="inlineStr"/>
@@ -16139,7 +16139,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0206</t>
         </is>
       </c>
       <c r="F206" t="inlineStr"/>
@@ -16212,7 +16212,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0207</t>
         </is>
       </c>
       <c r="F207" t="inlineStr"/>
@@ -16285,7 +16285,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0208</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -16358,7 +16358,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0209</t>
         </is>
       </c>
       <c r="F209" t="inlineStr"/>
@@ -16431,7 +16431,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0210</t>
         </is>
       </c>
       <c r="F210" t="inlineStr"/>
@@ -16504,7 +16504,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0211</t>
         </is>
       </c>
       <c r="F211" t="inlineStr"/>
@@ -16577,7 +16577,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0212</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
@@ -16650,7 +16650,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0213</t>
         </is>
       </c>
       <c r="F213" t="inlineStr"/>
@@ -16723,7 +16723,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0214</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
@@ -16796,7 +16796,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0215</t>
         </is>
       </c>
       <c r="F215" t="inlineStr"/>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0216</t>
         </is>
       </c>
       <c r="F216" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0217</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -17015,7 +17015,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0218</t>
         </is>
       </c>
       <c r="F218" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0219</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -17169,7 +17169,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0220</t>
         </is>
       </c>
       <c r="F220" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0221</t>
         </is>
       </c>
       <c r="F221" t="inlineStr"/>
@@ -17315,7 +17315,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0222</t>
         </is>
       </c>
       <c r="F222" t="inlineStr"/>
@@ -17384,7 +17384,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0223</t>
         </is>
       </c>
       <c r="F223" t="inlineStr"/>
@@ -17453,7 +17453,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0224</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -17526,7 +17526,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0225</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
@@ -17599,7 +17599,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0226</t>
         </is>
       </c>
       <c r="F226" t="inlineStr"/>
@@ -17672,7 +17672,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0227</t>
         </is>
       </c>
       <c r="F227" t="inlineStr"/>
@@ -17745,7 +17745,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0228</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
@@ -17814,7 +17814,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0229</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
@@ -17883,7 +17883,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0230</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
@@ -17952,7 +17952,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0231</t>
         </is>
       </c>
       <c r="F231" t="inlineStr"/>
@@ -18021,7 +18021,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0232</t>
         </is>
       </c>
       <c r="F232" t="inlineStr"/>
@@ -18090,7 +18090,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0233</t>
         </is>
       </c>
       <c r="F233" t="inlineStr"/>
@@ -18159,7 +18159,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0234</t>
         </is>
       </c>
       <c r="F234" t="inlineStr"/>
@@ -18228,7 +18228,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0235</t>
         </is>
       </c>
       <c r="F235" t="inlineStr"/>
@@ -18301,7 +18301,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0236</t>
         </is>
       </c>
       <c r="F236" t="inlineStr"/>
@@ -18374,7 +18374,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0002</t>
+          <t>FRC-HQ-SLM-P-21-0237</t>
         </is>
       </c>
       <c r="F237" t="inlineStr"/>
@@ -18443,7 +18443,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0002</t>
+          <t>FRC-HQ-SLM-P-21-0238</t>
         </is>
       </c>
       <c r="F238" t="inlineStr"/>
@@ -18512,7 +18512,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0002</t>
+          <t>FRC-HQ-SLM-P-21-0239</t>
         </is>
       </c>
       <c r="F239" t="inlineStr"/>
@@ -18581,7 +18581,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0002</t>
+          <t>FRC-HQ-SLM-P-21-0240</t>
         </is>
       </c>
       <c r="F240" t="inlineStr"/>
@@ -18650,7 +18650,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0002</t>
+          <t>FRC-HQ-SLM-P-21-0241</t>
         </is>
       </c>
       <c r="F241" t="inlineStr"/>
@@ -18719,7 +18719,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0242</t>
         </is>
       </c>
       <c r="F242" t="inlineStr"/>
@@ -18788,7 +18788,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0243</t>
         </is>
       </c>
       <c r="F243" t="inlineStr"/>
@@ -18857,7 +18857,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0244</t>
         </is>
       </c>
       <c r="F244" t="inlineStr"/>
@@ -18926,7 +18926,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0245</t>
         </is>
       </c>
       <c r="F245" t="inlineStr"/>
@@ -18995,7 +18995,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0246</t>
         </is>
       </c>
       <c r="F246" t="inlineStr"/>
@@ -19064,7 +19064,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0247</t>
         </is>
       </c>
       <c r="F247" t="inlineStr"/>
@@ -19133,7 +19133,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0248</t>
         </is>
       </c>
       <c r="F248" t="inlineStr"/>
@@ -19202,7 +19202,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0249</t>
         </is>
       </c>
       <c r="F249" t="inlineStr"/>
@@ -19271,7 +19271,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0250</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
@@ -19340,7 +19340,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0251</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
@@ -19409,7 +19409,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0252</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
@@ -19478,7 +19478,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0253</t>
         </is>
       </c>
       <c r="F253" t="inlineStr"/>
@@ -19547,7 +19547,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0254</t>
         </is>
       </c>
       <c r="F254" t="inlineStr"/>
@@ -19616,7 +19616,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0255</t>
         </is>
       </c>
       <c r="F255" t="inlineStr"/>
@@ -19685,7 +19685,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0256</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
@@ -19754,7 +19754,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0257</t>
         </is>
       </c>
       <c r="F257" t="inlineStr"/>
@@ -19823,7 +19823,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0258</t>
         </is>
       </c>
       <c r="F258" t="inlineStr"/>
@@ -19892,7 +19892,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0259</t>
         </is>
       </c>
       <c r="F259" t="inlineStr"/>
@@ -19961,7 +19961,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0260</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -20030,7 +20030,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0261</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -20099,7 +20099,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0262</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
@@ -20168,7 +20168,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0263</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
@@ -20237,7 +20237,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0264</t>
         </is>
       </c>
       <c r="F264" t="inlineStr"/>
@@ -20306,7 +20306,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0265</t>
         </is>
       </c>
       <c r="F265" t="inlineStr"/>
@@ -20375,7 +20375,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0266</t>
         </is>
       </c>
       <c r="F266" t="inlineStr"/>
@@ -20444,7 +20444,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0267</t>
         </is>
       </c>
       <c r="F267" t="inlineStr"/>
@@ -20513,7 +20513,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0268</t>
         </is>
       </c>
       <c r="F268" t="inlineStr"/>
@@ -20582,7 +20582,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0269</t>
         </is>
       </c>
       <c r="F269" t="inlineStr"/>
@@ -20655,7 +20655,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0270</t>
         </is>
       </c>
       <c r="F270" t="inlineStr"/>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0271</t>
         </is>
       </c>
       <c r="F271" t="inlineStr"/>
@@ -20793,7 +20793,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0272</t>
         </is>
       </c>
       <c r="F272" t="inlineStr"/>
@@ -20862,7 +20862,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0273</t>
         </is>
       </c>
       <c r="F273" t="inlineStr"/>
@@ -20931,7 +20931,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0274</t>
         </is>
       </c>
       <c r="F274" t="inlineStr"/>
@@ -21000,7 +21000,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0275</t>
         </is>
       </c>
       <c r="F275" t="inlineStr"/>
@@ -21069,7 +21069,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0276</t>
         </is>
       </c>
       <c r="F276" t="inlineStr"/>
@@ -21138,7 +21138,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0277</t>
         </is>
       </c>
       <c r="F277" t="inlineStr"/>
@@ -21207,7 +21207,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0278</t>
         </is>
       </c>
       <c r="F278" t="inlineStr"/>
@@ -21276,7 +21276,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0279</t>
         </is>
       </c>
       <c r="F279" t="inlineStr"/>
@@ -21345,7 +21345,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0280</t>
         </is>
       </c>
       <c r="F280" t="inlineStr"/>
@@ -21414,7 +21414,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0281</t>
         </is>
       </c>
       <c r="F281" t="inlineStr"/>
@@ -21483,7 +21483,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0282</t>
         </is>
       </c>
       <c r="F282" t="inlineStr"/>
@@ -21552,7 +21552,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0283</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
@@ -21621,7 +21621,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0284</t>
         </is>
       </c>
       <c r="F284" t="inlineStr"/>
@@ -21694,7 +21694,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0285</t>
         </is>
       </c>
       <c r="F285" t="inlineStr"/>
@@ -21767,7 +21767,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0286</t>
         </is>
       </c>
       <c r="F286" t="inlineStr"/>
@@ -21840,7 +21840,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0287</t>
         </is>
       </c>
       <c r="F287" t="inlineStr"/>
@@ -21909,7 +21909,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0288</t>
         </is>
       </c>
       <c r="F288" t="inlineStr"/>
@@ -21982,7 +21982,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0289</t>
         </is>
       </c>
       <c r="F289" t="inlineStr"/>
@@ -22055,7 +22055,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0290</t>
         </is>
       </c>
       <c r="F290" t="inlineStr"/>
@@ -22128,7 +22128,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0291</t>
         </is>
       </c>
       <c r="F291" t="inlineStr"/>
@@ -22201,7 +22201,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0292</t>
         </is>
       </c>
       <c r="F292" t="inlineStr"/>
@@ -22274,7 +22274,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0293</t>
         </is>
       </c>
       <c r="F293" t="inlineStr"/>
@@ -22347,7 +22347,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0294</t>
         </is>
       </c>
       <c r="F294" t="inlineStr"/>
@@ -22420,7 +22420,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0295</t>
         </is>
       </c>
       <c r="F295" t="inlineStr"/>
@@ -22493,7 +22493,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0296</t>
         </is>
       </c>
       <c r="F296" t="inlineStr"/>
@@ -22562,7 +22562,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0297</t>
         </is>
       </c>
       <c r="F297" t="inlineStr"/>
@@ -22631,7 +22631,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0298</t>
         </is>
       </c>
       <c r="F298" t="inlineStr"/>
@@ -22700,7 +22700,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0299</t>
         </is>
       </c>
       <c r="F299" t="inlineStr"/>
@@ -22769,7 +22769,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0003</t>
+          <t>FRC-HQ-SLM-F-21-0300</t>
         </is>
       </c>
       <c r="F300" t="inlineStr"/>
@@ -22838,7 +22838,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0003</t>
+          <t>FRC-HQ-SLM-F-21-0301</t>
         </is>
       </c>
       <c r="F301" t="inlineStr"/>
@@ -22907,7 +22907,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0000</t>
+          <t>FRC-HQ-SLM-F-23-0001</t>
         </is>
       </c>
       <c r="F302" t="n">
@@ -22978,7 +22978,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0000</t>
+          <t>FRC-HQ-SLM-F-23-0001</t>
         </is>
       </c>
       <c r="F303" t="n">
@@ -23049,7 +23049,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0000</t>
+          <t>FRC-HQ-SLM-M-23-0002</t>
         </is>
       </c>
       <c r="F304" t="n">
@@ -23120,7 +23120,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0000</t>
+          <t>FRC-HQ-SLM-M-23-0002</t>
         </is>
       </c>
       <c r="F305" t="n">
@@ -23191,7 +23191,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0000</t>
+          <t>FRC-HQ-SLM-M-23-0002</t>
         </is>
       </c>
       <c r="F306" t="n">
@@ -23262,7 +23262,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0000</t>
+          <t>FRC-HQ-SLM-M-23-0002</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -23333,7 +23333,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0000</t>
+          <t>FRC-HQ-SLM-F-21-0003</t>
         </is>
       </c>
       <c r="F308" t="n">
@@ -23404,7 +23404,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0000</t>
+          <t>FRC-HQ-SLM-F-21-0003</t>
         </is>
       </c>
       <c r="F309" t="n">
@@ -23475,7 +23475,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0000</t>
+          <t>FRC-HQ-SLM-O-19-0006</t>
         </is>
       </c>
       <c r="F310" t="n">
@@ -23546,7 +23546,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0000</t>
+          <t>FRC-HQ-SLM-O-19-0006</t>
         </is>
       </c>
       <c r="F311" t="n">
@@ -23617,7 +23617,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0000</t>
+          <t>FRC-HQ-SLM-F-23-0006</t>
         </is>
       </c>
       <c r="F312" t="n">
@@ -23688,7 +23688,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0000</t>
+          <t>FRC-HQ-SLM-F-23-0006</t>
         </is>
       </c>
       <c r="F313" t="n">
@@ -23759,7 +23759,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-23-0000</t>
+          <t>FRC-HQ-SLM-T-23-0006</t>
         </is>
       </c>
       <c r="F314" t="n">
@@ -23830,7 +23830,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-23-0000</t>
+          <t>FRC-HQ-SLM-T-23-0006</t>
         </is>
       </c>
       <c r="F315" t="n">
@@ -23901,7 +23901,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-23-0000</t>
+          <t>FRC-HQ-SLM-E-23-0006</t>
         </is>
       </c>
       <c r="F316" t="n">
@@ -23972,7 +23972,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-23-0000</t>
+          <t>FRC-HQ-SLM-E-23-0006</t>
         </is>
       </c>
       <c r="F317" t="n">
@@ -24043,7 +24043,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-23-0000</t>
+          <t>FRC-HQ-SLM-E-23-0006</t>
         </is>
       </c>
       <c r="F318" t="n">
@@ -24114,7 +24114,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0000</t>
+          <t>FRC-HQ-SLM-C-22-0006</t>
         </is>
       </c>
       <c r="F319" t="n">
@@ -24185,7 +24185,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0000</t>
+          <t>FRC-HQ-SLM-C-22-0006</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -24256,7 +24256,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -24327,7 +24327,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F322" t="n">
@@ -24398,7 +24398,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F323" t="n">
@@ -24469,7 +24469,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F324" t="n">
@@ -24540,7 +24540,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F325" t="n">
@@ -24611,7 +24611,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F326" t="n">
@@ -24682,7 +24682,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F327" t="n">
@@ -24753,7 +24753,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F328" t="n">
@@ -24824,7 +24824,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F329" t="n">
@@ -24895,7 +24895,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F330" t="n">
@@ -24966,7 +24966,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F331" t="n">
@@ -25037,7 +25037,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F332" t="n">
@@ -25108,7 +25108,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-20-0000</t>
+          <t>FRC-HQ-SLM-T-20-0001</t>
         </is>
       </c>
       <c r="F333" t="n">
@@ -25179,7 +25179,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0000</t>
+          <t>FRC-HQ-SLM-O-21-0001</t>
         </is>
       </c>
       <c r="F334" t="n">
